--- a/projects/Kofskey1974/Full_Dataset_Kofskey1974.xlsx
+++ b/projects/Kofskey1974/Full_Dataset_Kofskey1974.xlsx
@@ -469,7 +469,7 @@
         <v>100</v>
       </c>
       <c r="D2" t="n">
-        <v>2.018931854895</v>
+        <v>2.004455439082284</v>
       </c>
     </row>
     <row r="3">
@@ -483,7 +483,7 @@
         <v>30</v>
       </c>
       <c r="D3" t="n">
-        <v>2.08552938595616</v>
+        <v>2.070575443599196</v>
       </c>
     </row>
     <row r="4">
@@ -497,7 +497,7 @@
         <v>90</v>
       </c>
       <c r="D4" t="n">
-        <v>2.06036136649183</v>
+        <v>2.045587887241664</v>
       </c>
     </row>
     <row r="5">
@@ -511,7 +511,7 @@
         <v>30</v>
       </c>
       <c r="D5" t="n">
-        <v>2.13682667570747</v>
+        <v>2.121504914647411</v>
       </c>
     </row>
     <row r="6">
@@ -525,7 +525,7 @@
         <v>30</v>
       </c>
       <c r="D6" t="n">
-        <v>2.18699918233851</v>
+        <v>2.171317667646055</v>
       </c>
     </row>
     <row r="7">
@@ -539,7 +539,7 @@
         <v>100</v>
       </c>
       <c r="D7" t="n">
-        <v>2.13559818917894</v>
+        <v>2.120285236777659</v>
       </c>
     </row>
     <row r="8">
@@ -553,7 +553,7 @@
         <v>50</v>
       </c>
       <c r="D8" t="n">
-        <v>2.17709949544303</v>
+        <v>2.161488964812551</v>
       </c>
     </row>
     <row r="9">
@@ -567,7 +567,7 @@
         <v>90</v>
       </c>
       <c r="D9" t="n">
-        <v>2.15631493927367</v>
+        <v>2.140853440853893</v>
       </c>
     </row>
     <row r="10">
@@ -581,7 +581,7 @@
         <v>70</v>
       </c>
       <c r="D10" t="n">
-        <v>2.17051034042638</v>
+        <v>2.154947056238442</v>
       </c>
     </row>
     <row r="11">
@@ -595,7 +595,7 @@
         <v>30</v>
       </c>
       <c r="D11" t="n">
-        <v>2.21748798436471</v>
+        <v>2.20158785477711</v>
       </c>
     </row>
     <row r="12">
@@ -609,7 +609,7 @@
         <v>105</v>
       </c>
       <c r="D12" t="n">
-        <v>2.1857268212911</v>
+        <v>2.17005442985238</v>
       </c>
     </row>
     <row r="13">
@@ -623,7 +623,7 @@
         <v>100</v>
       </c>
       <c r="D13" t="n">
-        <v>2.17694792892327</v>
+        <v>2.161338485075369</v>
       </c>
     </row>
     <row r="14">
@@ -637,7 +637,7 @@
         <v>70</v>
       </c>
       <c r="D14" t="n">
-        <v>2.20752846857986</v>
+        <v>2.191699752047359</v>
       </c>
     </row>
     <row r="15">
@@ -651,7 +651,7 @@
         <v>50</v>
       </c>
       <c r="D15" t="n">
-        <v>2.22282472129709</v>
+        <v>2.206886325522977</v>
       </c>
     </row>
     <row r="16">
@@ -665,7 +665,7 @@
         <v>90</v>
       </c>
       <c r="D16" t="n">
-        <v>2.1976806333885</v>
+        <v>2.181922529123936</v>
       </c>
     </row>
     <row r="17">
@@ -679,7 +679,7 @@
         <v>30</v>
       </c>
       <c r="D17" t="n">
-        <v>2.26208044991324</v>
+        <v>2.245860577451789</v>
       </c>
     </row>
     <row r="18">
@@ -693,7 +693,7 @@
         <v>30</v>
       </c>
       <c r="D18" t="n">
-        <v>2.27727698781484</v>
+        <v>2.260948151100314</v>
       </c>
     </row>
     <row r="19">
@@ -707,7 +707,7 @@
         <v>30</v>
       </c>
       <c r="D19" t="n">
-        <v>2.28377041660849</v>
+        <v>2.267395019840419</v>
       </c>
     </row>
     <row r="20">
@@ -721,7 +721,7 @@
         <v>50</v>
       </c>
       <c r="D20" t="n">
-        <v>2.26736533514149</v>
+        <v>2.251107568287565</v>
       </c>
     </row>
     <row r="21">
@@ -735,7 +735,7 @@
         <v>70</v>
       </c>
       <c r="D21" t="n">
-        <v>2.25748957980176</v>
+        <v>2.241302625412563</v>
       </c>
     </row>
     <row r="22">
@@ -749,7 +749,7 @@
         <v>100</v>
       </c>
       <c r="D22" t="n">
-        <v>2.24218534989928</v>
+        <v>2.226108131950777</v>
       </c>
     </row>
     <row r="23">
@@ -763,7 +763,7 @@
         <v>105</v>
       </c>
       <c r="D23" t="n">
-        <v>2.24327423568593</v>
+        <v>2.227189210062601</v>
       </c>
     </row>
     <row r="24">
@@ -777,7 +777,7 @@
         <v>50</v>
       </c>
       <c r="D24" t="n">
-        <v>2.27601659254532</v>
+        <v>2.259696793285904</v>
       </c>
     </row>
     <row r="25">
@@ -791,7 +791,7 @@
         <v>90</v>
       </c>
       <c r="D25" t="n">
-        <v>2.25409927607043</v>
+        <v>2.237936631291499</v>
       </c>
     </row>
     <row r="26">
@@ -805,7 +805,7 @@
         <v>30</v>
       </c>
       <c r="D26" t="n">
-        <v>2.29125301637317</v>
+        <v>2.274823966865265</v>
       </c>
     </row>
     <row r="27">
@@ -819,7 +819,7 @@
         <v>70</v>
       </c>
       <c r="D27" t="n">
-        <v>2.26939154019504</v>
+        <v>2.253119244774038</v>
       </c>
     </row>
     <row r="28">
@@ -833,7 +833,7 @@
         <v>100</v>
       </c>
       <c r="D28" t="n">
-        <v>2.25078874419161</v>
+        <v>2.234649837032115</v>
       </c>
     </row>
     <row r="29">
@@ -847,7 +847,7 @@
         <v>50</v>
       </c>
       <c r="D29" t="n">
-        <v>2.29446383343637</v>
+        <v>2.278011761297566</v>
       </c>
     </row>
     <row r="30">
@@ -861,7 +861,7 @@
         <v>70</v>
       </c>
       <c r="D30" t="n">
-        <v>2.27257443710986</v>
+        <v>2.256279319254749</v>
       </c>
     </row>
     <row r="31">
@@ -875,7 +875,7 @@
         <v>30</v>
       </c>
       <c r="D31" t="n">
-        <v>2.29658975330554</v>
+        <v>2.280122437611122</v>
       </c>
     </row>
     <row r="32">
@@ -889,7 +889,7 @@
         <v>100</v>
       </c>
       <c r="D32" t="n">
-        <v>2.25942005863231</v>
+        <v>2.243219262065032</v>
       </c>
     </row>
     <row r="33">
@@ -903,7 +903,7 @@
         <v>90</v>
       </c>
       <c r="D33" t="n">
-        <v>2.27141375665596</v>
+        <v>2.255126961267423</v>
       </c>
     </row>
     <row r="34">
@@ -917,7 +917,7 @@
         <v>105</v>
       </c>
       <c r="D34" t="n">
-        <v>2.25938416129868</v>
+        <v>2.243183622127275</v>
       </c>
     </row>
     <row r="35">
@@ -931,7 +931,7 @@
         <v>30</v>
       </c>
       <c r="D35" t="n">
-        <v>2.29648206130466</v>
+        <v>2.280015517797862</v>
       </c>
     </row>
     <row r="36">
@@ -945,7 +945,7 @@
         <v>30</v>
       </c>
       <c r="D36" t="n">
-        <v>2.29643419819316</v>
+        <v>2.27996799788086</v>
       </c>
     </row>
     <row r="37">
@@ -959,7 +959,7 @@
         <v>30</v>
       </c>
       <c r="D37" t="n">
-        <v>2.30075783259876</v>
+        <v>2.284260630383486</v>
       </c>
     </row>
     <row r="38">
@@ -973,7 +973,7 @@
         <v>100</v>
       </c>
       <c r="D38" t="n">
-        <v>2.28107013940131</v>
+        <v>2.264714104522827</v>
       </c>
     </row>
     <row r="39">
@@ -987,7 +987,7 @@
         <v>70</v>
       </c>
       <c r="D39" t="n">
-        <v>2.29962906088586</v>
+        <v>2.283139952340827</v>
       </c>
     </row>
     <row r="40">
@@ -1001,7 +1001,7 @@
         <v>90</v>
       </c>
       <c r="D40" t="n">
-        <v>2.28098239036356</v>
+        <v>2.26462698467499</v>
       </c>
     </row>
     <row r="41">
@@ -1015,7 +1015,7 @@
         <v>50</v>
       </c>
       <c r="D41" t="n">
-        <v>2.30389286640209</v>
+        <v>2.287373184947205</v>
       </c>
     </row>
     <row r="42">
@@ -1029,7 +1029,7 @@
         <v>105</v>
       </c>
       <c r="D42" t="n">
-        <v>2.27874478990088</v>
+        <v>2.262405428555085</v>
       </c>
     </row>
     <row r="43">
@@ -1043,7 +1043,7 @@
         <v>50</v>
       </c>
       <c r="D43" t="n">
-        <v>2.30165526593941</v>
+        <v>2.2851516288273</v>
       </c>
     </row>
     <row r="44">
@@ -1057,7 +1057,7 @@
         <v>100</v>
       </c>
       <c r="D44" t="n">
-        <v>2.2775721436691</v>
+        <v>2.261241190588503</v>
       </c>
     </row>
     <row r="45">
@@ -1071,7 +1071,7 @@
         <v>70</v>
       </c>
       <c r="D45" t="n">
-        <v>2.30373731128971</v>
+        <v>2.287218745216943</v>
       </c>
     </row>
     <row r="46">
@@ -1085,7 +1085,7 @@
         <v>50</v>
       </c>
       <c r="D46" t="n">
-        <v>2.30592306004826</v>
+        <v>2.289388821426757</v>
       </c>
     </row>
     <row r="47">
@@ -1099,7 +1099,7 @@
         <v>90</v>
       </c>
       <c r="D47" t="n">
-        <v>2.29165985282093</v>
+        <v>2.275227886159793</v>
       </c>
     </row>
     <row r="48">
@@ -1113,7 +1113,7 @@
         <v>105</v>
       </c>
       <c r="D48" t="n">
-        <v>2.29053905829328</v>
+        <v>2.274115128103301</v>
       </c>
     </row>
     <row r="49">
@@ -1127,7 +1127,7 @@
         <v>50</v>
       </c>
       <c r="D49" t="n">
-        <v>2.30473445944598</v>
+        <v>2.288208743487841</v>
       </c>
     </row>
     <row r="50">
@@ -1141,7 +1141,7 @@
         <v>100</v>
       </c>
       <c r="D50" t="n">
-        <v>2.29367808068922</v>
+        <v>2.277231642660089</v>
       </c>
     </row>
     <row r="51">
@@ -1155,7 +1155,7 @@
         <v>50</v>
       </c>
       <c r="D51" t="n">
-        <v>2.3045789043336</v>
+        <v>2.288054303757578</v>
       </c>
     </row>
     <row r="52">
@@ -1169,7 +1169,7 @@
         <v>90</v>
       </c>
       <c r="D52" t="n">
-        <v>2.29471910336437</v>
+        <v>2.278265200854911</v>
       </c>
     </row>
     <row r="53">
@@ -1183,7 +1183,7 @@
         <v>100</v>
       </c>
       <c r="D53" t="n">
-        <v>2.29465528588237</v>
+        <v>2.278201840965574</v>
       </c>
     </row>
     <row r="54">
@@ -1197,7 +1197,7 @@
         <v>70</v>
       </c>
       <c r="D54" t="n">
-        <v>2.30226950920367</v>
+        <v>2.285761467762171</v>
       </c>
     </row>
     <row r="55">
@@ -1211,7 +1211,7 @@
         <v>105</v>
       </c>
       <c r="D55" t="n">
-        <v>2.29349061683584</v>
+        <v>2.277045522985159</v>
       </c>
     </row>
     <row r="56">
@@ -1225,7 +1225,7 @@
         <v>90</v>
       </c>
       <c r="D56" t="n">
-        <v>2.29455955965937</v>
+        <v>2.27810680113157</v>
       </c>
     </row>
     <row r="57">
@@ -1239,7 +1239,7 @@
         <v>100</v>
       </c>
       <c r="D57" t="n">
-        <v>2.29558462796402</v>
+        <v>2.279124519354057</v>
       </c>
     </row>
     <row r="58">
@@ -1253,7 +1253,7 @@
         <v>105</v>
       </c>
       <c r="D58" t="n">
-        <v>2.29770257064794</v>
+        <v>2.281227275681446</v>
       </c>
     </row>
     <row r="59">
@@ -1267,7 +1267,7 @@
         <v>90</v>
       </c>
       <c r="D59" t="n">
-        <v>2.29764274175857</v>
+        <v>2.281167875785199</v>
       </c>
     </row>
     <row r="60">
@@ -1281,7 +1281,7 @@
         <v>100</v>
       </c>
       <c r="D60" t="n">
-        <v>2.29099375785254</v>
+        <v>2.274566567314832</v>
       </c>
     </row>
     <row r="61">
@@ -1295,7 +1295,7 @@
         <v>90</v>
       </c>
       <c r="D61" t="n">
-        <v>2.30189059290429</v>
+        <v>2.285385268419232</v>
       </c>
     </row>
     <row r="62">
@@ -1309,7 +1309,7 @@
         <v>100</v>
       </c>
       <c r="D62" t="n">
-        <v>2.29737550605268</v>
+        <v>2.280902556248588</v>
       </c>
     </row>
     <row r="63">
@@ -1323,7 +1323,7 @@
         <v>105</v>
       </c>
       <c r="D63" t="n">
-        <v>2.30279999202281</v>
+        <v>2.286288146842293</v>
       </c>
     </row>
   </sheetData>
@@ -1378,7 +1378,7 @@
         <v>100</v>
       </c>
       <c r="D2" t="n">
-        <v>17.577445809303</v>
+        <v>18.77472494142729</v>
       </c>
     </row>
     <row r="3">
@@ -1392,7 +1392,7 @@
         <v>30</v>
       </c>
       <c r="D3" t="n">
-        <v>58.6345603652435</v>
+        <v>62.62842479288596</v>
       </c>
     </row>
     <row r="4">
@@ -1406,7 +1406,7 @@
         <v>90</v>
       </c>
       <c r="D4" t="n">
-        <v>23.6584691348092</v>
+        <v>25.26995419927301</v>
       </c>
     </row>
     <row r="5">
@@ -1420,7 +1420,7 @@
         <v>30</v>
       </c>
       <c r="D5" t="n">
-        <v>65.1409636918559</v>
+        <v>69.57800860275231</v>
       </c>
     </row>
     <row r="6">
@@ -1434,7 +1434,7 @@
         <v>30</v>
       </c>
       <c r="D6" t="n">
-        <v>74.6199988938108</v>
+        <v>79.70270365558075</v>
       </c>
     </row>
     <row r="7">
@@ -1448,7 +1448,7 @@
         <v>100</v>
       </c>
       <c r="D7" t="n">
-        <v>26.6186312417978</v>
+        <v>28.43174630170308</v>
       </c>
     </row>
     <row r="8">
@@ -1462,7 +1462,7 @@
         <v>50</v>
       </c>
       <c r="D8" t="n">
-        <v>59.3248223812229</v>
+        <v>63.36570366878892</v>
       </c>
     </row>
     <row r="9">
@@ -1476,7 +1476,7 @@
         <v>90</v>
       </c>
       <c r="D9" t="n">
-        <v>31.8529170710123</v>
+        <v>34.02256295245342</v>
       </c>
     </row>
     <row r="10">
@@ -1490,7 +1490,7 @@
         <v>70</v>
       </c>
       <c r="D10" t="n">
-        <v>39.3564996153478</v>
+        <v>42.03724835518886</v>
       </c>
     </row>
     <row r="11">
@@ -1504,7 +1504,7 @@
         <v>30</v>
       </c>
       <c r="D11" t="n">
-        <v>78.1521613427125</v>
+        <v>83.47545762370675</v>
       </c>
     </row>
     <row r="12">
@@ -1518,7 +1518,7 @@
         <v>105</v>
       </c>
       <c r="D12" t="n">
-        <v>30.0053801016688</v>
+        <v>32.04918190523755</v>
       </c>
     </row>
     <row r="13">
@@ -1532,7 +1532,7 @@
         <v>100</v>
       </c>
       <c r="D13" t="n">
-        <v>34.6761128514036</v>
+        <v>37.03805933387828</v>
       </c>
     </row>
     <row r="14">
@@ -1546,7 +1546,7 @@
         <v>70</v>
       </c>
       <c r="D14" t="n">
-        <v>47.2764115224682</v>
+        <v>50.49662119181698</v>
       </c>
     </row>
     <row r="15">
@@ -1560,7 +1560,7 @@
         <v>50</v>
       </c>
       <c r="D15" t="n">
-        <v>68.5136337810047</v>
+        <v>73.18040646697639</v>
       </c>
     </row>
     <row r="16">
@@ -1574,7 +1574,7 @@
         <v>90</v>
       </c>
       <c r="D16" t="n">
-        <v>37.2209512220875</v>
+        <v>39.7562381266522</v>
       </c>
     </row>
     <row r="17">
@@ -1588,7 +1588,7 @@
         <v>30</v>
       </c>
       <c r="D17" t="n">
-        <v>89.8864144890663</v>
+        <v>96.00898368921001</v>
       </c>
     </row>
     <row r="18">
@@ -1602,7 +1602,7 @@
         <v>30</v>
       </c>
       <c r="D18" t="n">
-        <v>97.2419688155228</v>
+        <v>103.8655580043393</v>
       </c>
     </row>
     <row r="19">
@@ -1616,7 +1616,7 @@
         <v>30</v>
       </c>
       <c r="D19" t="n">
-        <v>99.3616283103967</v>
+        <v>106.12959706994</v>
       </c>
     </row>
     <row r="20">
@@ -1630,7 +1630,7 @@
         <v>50</v>
       </c>
       <c r="D20" t="n">
-        <v>80.52825559002621</v>
+        <v>86.01339836960352</v>
       </c>
     </row>
     <row r="21">
@@ -1644,7 +1644,7 @@
         <v>100</v>
       </c>
       <c r="D21" t="n">
-        <v>44.5610189007497</v>
+        <v>47.59627092854016</v>
       </c>
     </row>
     <row r="22">
@@ -1658,7 +1658,7 @@
         <v>70</v>
       </c>
       <c r="D22" t="n">
-        <v>60.8441228674433</v>
+        <v>64.98849056522573</v>
       </c>
     </row>
     <row r="23">
@@ -1672,7 +1672,7 @@
         <v>105</v>
       </c>
       <c r="D23" t="n">
-        <v>42.0113535229609</v>
+        <v>44.8729363394311</v>
       </c>
     </row>
     <row r="24">
@@ -1686,7 +1686,7 @@
         <v>50</v>
       </c>
       <c r="D24" t="n">
-        <v>85.3355524157662</v>
+        <v>91.14814186955482</v>
       </c>
     </row>
     <row r="25">
@@ -1700,7 +1700,7 @@
         <v>30</v>
       </c>
       <c r="D25" t="n">
-        <v>105.437422378206</v>
+        <v>112.6192408817561</v>
       </c>
     </row>
     <row r="26">
@@ -1714,7 +1714,7 @@
         <v>90</v>
       </c>
       <c r="D26" t="n">
-        <v>52.197947516354</v>
+        <v>55.75338520502964</v>
       </c>
     </row>
     <row r="27">
@@ -1728,7 +1728,7 @@
         <v>100</v>
       </c>
       <c r="D27" t="n">
-        <v>48.232762305097</v>
+        <v>51.51811334068604</v>
       </c>
     </row>
     <row r="28">
@@ -1742,7 +1742,7 @@
         <v>70</v>
       </c>
       <c r="D28" t="n">
-        <v>62.1085976035921</v>
+        <v>66.33909438014477</v>
       </c>
     </row>
     <row r="29">
@@ -1756,7 +1756,7 @@
         <v>50</v>
       </c>
       <c r="D29" t="n">
-        <v>89.4324746959237</v>
+        <v>95.52412400887408</v>
       </c>
     </row>
     <row r="30">
@@ -1770,7 +1770,7 @@
         <v>70</v>
       </c>
       <c r="D30" t="n">
-        <v>68.3316153880964</v>
+        <v>72.98598998017799</v>
       </c>
     </row>
     <row r="31">
@@ -1784,7 +1784,7 @@
         <v>30</v>
       </c>
       <c r="D31" t="n">
-        <v>110.240897823321</v>
+        <v>117.7499027096084</v>
       </c>
     </row>
     <row r="32">
@@ -1798,7 +1798,7 @@
         <v>100</v>
       </c>
       <c r="D32" t="n">
-        <v>51.05434908312</v>
+        <v>54.53189112333252</v>
       </c>
     </row>
     <row r="33">
@@ -1812,7 +1812,7 @@
         <v>105</v>
       </c>
       <c r="D33" t="n">
-        <v>48.6450691619611</v>
+        <v>51.95850427763269</v>
       </c>
     </row>
     <row r="34">
@@ -1826,7 +1826,7 @@
         <v>90</v>
       </c>
       <c r="D34" t="n">
-        <v>56.4322383737008</v>
+        <v>60.27609271504863</v>
       </c>
     </row>
     <row r="35">
@@ -1840,7 +1840,7 @@
         <v>30</v>
       </c>
       <c r="D35" t="n">
-        <v>114.056445814331</v>
+        <v>121.8253448875678</v>
       </c>
     </row>
     <row r="36">
@@ -1854,7 +1854,7 @@
         <v>30</v>
       </c>
       <c r="D36" t="n">
-        <v>115.327155434656</v>
+        <v>123.182608272752</v>
       </c>
     </row>
     <row r="37">
@@ -1868,7 +1868,7 @@
         <v>50</v>
       </c>
       <c r="D37" t="n">
-        <v>96.7771682563945</v>
+        <v>103.3690977822496</v>
       </c>
     </row>
     <row r="38">
@@ -1882,7 +1882,7 @@
         <v>30</v>
       </c>
       <c r="D38" t="n">
-        <v>117.305021595828</v>
+        <v>125.2951958210127</v>
       </c>
     </row>
     <row r="39">
@@ -1896,7 +1896,7 @@
         <v>100</v>
       </c>
       <c r="D39" t="n">
-        <v>56.1347740608706</v>
+        <v>59.95836676590523</v>
       </c>
     </row>
     <row r="40">
@@ -1910,7 +1910,7 @@
         <v>70</v>
       </c>
       <c r="D40" t="n">
-        <v>77.79737632051329</v>
+        <v>83.09650659308528</v>
       </c>
     </row>
     <row r="41">
@@ -1924,7 +1924,7 @@
         <v>90</v>
       </c>
       <c r="D41" t="n">
-        <v>65.04824493038549</v>
+        <v>69.47897434815114</v>
       </c>
     </row>
     <row r="42">
@@ -1938,7 +1938,7 @@
         <v>50</v>
       </c>
       <c r="D42" t="n">
-        <v>100.302894695823</v>
+        <v>107.1349773552621</v>
       </c>
     </row>
     <row r="43">
@@ -1952,7 +1952,7 @@
         <v>105</v>
       </c>
       <c r="D43" t="n">
-        <v>56.125120046661</v>
+        <v>59.94805517323515</v>
       </c>
     </row>
     <row r="44">
@@ -1966,7 +1966,7 @@
         <v>50</v>
       </c>
       <c r="D44" t="n">
-        <v>105.537381650333</v>
+        <v>112.7260088308591</v>
       </c>
     </row>
     <row r="45">
@@ -1980,7 +1980,7 @@
         <v>100</v>
       </c>
       <c r="D45" t="n">
-        <v>61.6407801650233</v>
+        <v>65.83941178534572</v>
       </c>
     </row>
     <row r="46">
@@ -1994,7 +1994,7 @@
         <v>70</v>
       </c>
       <c r="D46" t="n">
-        <v>83.4417566283355</v>
+        <v>89.12535110746201</v>
       </c>
     </row>
     <row r="47">
@@ -2008,7 +2008,7 @@
         <v>50</v>
       </c>
       <c r="D47" t="n">
-        <v>109.069544099235</v>
+        <v>116.4987627989855</v>
       </c>
     </row>
     <row r="48">
@@ -2022,7 +2022,7 @@
         <v>90</v>
       </c>
       <c r="D48" t="n">
-        <v>70.5522397815779</v>
+        <v>75.35787111911874</v>
       </c>
     </row>
     <row r="49">
@@ -2036,7 +2036,7 @@
         <v>105</v>
       </c>
       <c r="D49" t="n">
-        <v>60.3549861474952</v>
+        <v>64.46603653661383</v>
       </c>
     </row>
     <row r="50">
@@ -2050,7 +2050,7 @@
         <v>50</v>
       </c>
       <c r="D50" t="n">
-        <v>110.618611129268</v>
+        <v>118.1533437728213</v>
       </c>
     </row>
     <row r="51">
@@ -2064,7 +2064,7 @@
         <v>70</v>
       </c>
       <c r="D51" t="n">
-        <v>88.23577918453751</v>
+        <v>94.2459161674922</v>
       </c>
     </row>
     <row r="52">
@@ -2078,7 +2078,7 @@
         <v>50</v>
       </c>
       <c r="D52" t="n">
-        <v>114.713321031169</v>
+        <v>122.5269628388202</v>
       </c>
     </row>
     <row r="53">
@@ -2092,7 +2092,7 @@
         <v>90</v>
       </c>
       <c r="D53" t="n">
-        <v>74.49932371619209</v>
+        <v>79.57380874720617</v>
       </c>
     </row>
     <row r="54">
@@ -2106,7 +2106,7 @@
         <v>100</v>
       </c>
       <c r="D54" t="n">
-        <v>69.25518274747211</v>
+        <v>73.97246567893862</v>
       </c>
     </row>
     <row r="55">
@@ -2120,7 +2120,7 @@
         <v>70</v>
       </c>
       <c r="D55" t="n">
-        <v>90.91677938063459</v>
+        <v>97.10953138188216</v>
       </c>
     </row>
     <row r="56">
@@ -2134,7 +2134,7 @@
         <v>90</v>
       </c>
       <c r="D56" t="n">
-        <v>78.7348213253151</v>
+        <v>84.09780520630892</v>
       </c>
     </row>
     <row r="57">
@@ -2148,7 +2148,7 @@
         <v>100</v>
       </c>
       <c r="D57" t="n">
-        <v>71.3663949799126</v>
+        <v>76.22748210095305</v>
       </c>
     </row>
     <row r="58">
@@ -2162,7 +2162,7 @@
         <v>105</v>
       </c>
       <c r="D58" t="n">
-        <v>69.37907592982739</v>
+        <v>74.10479778486993</v>
       </c>
     </row>
     <row r="59">
@@ -2176,7 +2176,7 @@
         <v>90</v>
       </c>
       <c r="D59" t="n">
-        <v>82.1177488045615</v>
+        <v>87.71115913774487</v>
       </c>
     </row>
     <row r="60">
@@ -2190,7 +2190,7 @@
         <v>100</v>
       </c>
       <c r="D60" t="n">
-        <v>74.1815457484626</v>
+        <v>79.23438548848621</v>
       </c>
     </row>
     <row r="61">
@@ -2204,7 +2204,7 @@
         <v>90</v>
       </c>
       <c r="D61" t="n">
-        <v>83.66540795752231</v>
+        <v>89.3642363376497</v>
       </c>
     </row>
     <row r="62">
@@ -2218,7 +2218,7 @@
         <v>100</v>
       </c>
       <c r="D62" t="n">
-        <v>75.5837913123928</v>
+        <v>80.73214432379963</v>
       </c>
     </row>
     <row r="63">
@@ -2232,7 +2232,7 @@
         <v>105</v>
       </c>
       <c r="D63" t="n">
-        <v>73.7400757236739</v>
+        <v>78.76284494868229</v>
       </c>
     </row>
   </sheetData>
@@ -2301,7 +2301,7 @@
         <v>100</v>
       </c>
       <c r="D3" t="n">
-        <v>60.61203906180865</v>
+        <v>60.61203906180867</v>
       </c>
     </row>
     <row r="4">
@@ -2357,7 +2357,7 @@
         <v>90</v>
       </c>
       <c r="D7" t="n">
-        <v>68.57288876324273</v>
+        <v>68.57288876324272</v>
       </c>
     </row>
     <row r="8">
@@ -2385,7 +2385,7 @@
         <v>30</v>
       </c>
       <c r="D9" t="n">
-        <v>54.24628698037461</v>
+        <v>54.24628698037463</v>
       </c>
     </row>
     <row r="10">
@@ -2413,7 +2413,7 @@
         <v>30</v>
       </c>
       <c r="D11" t="n">
-        <v>52.16545817149606</v>
+        <v>52.16545817149607</v>
       </c>
     </row>
     <row r="12">
@@ -2441,7 +2441,7 @@
         <v>100</v>
       </c>
       <c r="D13" t="n">
-        <v>68.50375475954007</v>
+        <v>68.50375475954006</v>
       </c>
     </row>
     <row r="14">
@@ -2455,7 +2455,7 @@
         <v>50</v>
       </c>
       <c r="D14" t="n">
-        <v>76.12966632614061</v>
+        <v>76.12966632614062</v>
       </c>
     </row>
     <row r="15">
@@ -2469,7 +2469,7 @@
         <v>50</v>
       </c>
       <c r="D15" t="n">
-        <v>76.14050371890117</v>
+        <v>76.14050371890119</v>
       </c>
     </row>
     <row r="16">
@@ -2511,7 +2511,7 @@
         <v>70</v>
       </c>
       <c r="D18" t="n">
-        <v>70.61689335663465</v>
+        <v>70.61689335663462</v>
       </c>
     </row>
     <row r="19">
@@ -2539,7 +2539,7 @@
         <v>30</v>
       </c>
       <c r="D20" t="n">
-        <v>49.05396642081922</v>
+        <v>49.05396642081923</v>
       </c>
     </row>
     <row r="21">
@@ -2595,7 +2595,7 @@
         <v>100</v>
       </c>
       <c r="D24" t="n">
-        <v>78.02256974951129</v>
+        <v>78.02256974951131</v>
       </c>
     </row>
     <row r="25">
@@ -2623,7 +2623,7 @@
         <v>70</v>
       </c>
       <c r="D26" t="n">
-        <v>77.33798093495629</v>
+        <v>77.33798093495626</v>
       </c>
     </row>
     <row r="27">
@@ -2637,7 +2637,7 @@
         <v>70</v>
       </c>
       <c r="D27" t="n">
-        <v>77.52133564990071</v>
+        <v>77.52133564990068</v>
       </c>
     </row>
     <row r="28">
@@ -2651,7 +2651,7 @@
         <v>50</v>
       </c>
       <c r="D28" t="n">
-        <v>75.20760632789029</v>
+        <v>75.20760632789028</v>
       </c>
     </row>
     <row r="29">
@@ -2665,7 +2665,7 @@
         <v>50</v>
       </c>
       <c r="D29" t="n">
-        <v>75.05863890179305</v>
+        <v>75.05863890179303</v>
       </c>
     </row>
     <row r="30">
@@ -2679,7 +2679,7 @@
         <v>90</v>
       </c>
       <c r="D30" t="n">
-        <v>71.22212926439093</v>
+        <v>71.22212926439094</v>
       </c>
     </row>
     <row r="31">
@@ -2693,7 +2693,7 @@
         <v>90</v>
       </c>
       <c r="D31" t="n">
-        <v>71.33183509661708</v>
+        <v>71.3318350966171</v>
       </c>
     </row>
     <row r="32">
@@ -2707,7 +2707,7 @@
         <v>30</v>
       </c>
       <c r="D32" t="n">
-        <v>45.97544356830893</v>
+        <v>45.97544356830892</v>
       </c>
     </row>
     <row r="33">
@@ -2721,7 +2721,7 @@
         <v>30</v>
       </c>
       <c r="D33" t="n">
-        <v>45.75868569261432</v>
+        <v>45.75868569261433</v>
       </c>
     </row>
     <row r="34">
@@ -2735,7 +2735,7 @@
         <v>30</v>
       </c>
       <c r="D34" t="n">
-        <v>44.89583405663864</v>
+        <v>44.89583405663863</v>
       </c>
     </row>
     <row r="35">
@@ -2763,7 +2763,7 @@
         <v>30</v>
       </c>
       <c r="D36" t="n">
-        <v>43.42526330660495</v>
+        <v>43.42526330660496</v>
       </c>
     </row>
     <row r="37">
@@ -2777,7 +2777,7 @@
         <v>30</v>
       </c>
       <c r="D37" t="n">
-        <v>43.37118198089558</v>
+        <v>43.37118198089559</v>
       </c>
     </row>
     <row r="38">
@@ -2791,7 +2791,7 @@
         <v>50</v>
       </c>
       <c r="D38" t="n">
-        <v>69.70272488565848</v>
+        <v>69.70272488565851</v>
       </c>
     </row>
     <row r="39">
@@ -2805,7 +2805,7 @@
         <v>50</v>
       </c>
       <c r="D39" t="n">
-        <v>69.64170513533303</v>
+        <v>69.64170513533304</v>
       </c>
     </row>
     <row r="40">
@@ -2833,7 +2833,7 @@
         <v>70</v>
       </c>
       <c r="D41" t="n">
-        <v>78.48038147258636</v>
+        <v>78.48038147258634</v>
       </c>
     </row>
     <row r="42">
@@ -2847,7 +2847,7 @@
         <v>70</v>
       </c>
       <c r="D42" t="n">
-        <v>78.48074518048122</v>
+        <v>78.48074518048125</v>
       </c>
     </row>
     <row r="43">
@@ -2973,7 +2973,7 @@
         <v>90</v>
       </c>
       <c r="D51" t="n">
-        <v>79.32279876188304</v>
+        <v>79.32279876188302</v>
       </c>
     </row>
     <row r="52">
@@ -2987,7 +2987,7 @@
         <v>70</v>
       </c>
       <c r="D52" t="n">
-        <v>74.16060937262155</v>
+        <v>74.16060937262154</v>
       </c>
     </row>
     <row r="53">
@@ -3001,7 +3001,7 @@
         <v>100</v>
       </c>
       <c r="D53" t="n">
-        <v>81.49455577858504</v>
+        <v>81.49455577858502</v>
       </c>
     </row>
     <row r="54">
@@ -3015,7 +3015,7 @@
         <v>70</v>
       </c>
       <c r="D54" t="n">
-        <v>73.90913044999968</v>
+        <v>73.90913044999967</v>
       </c>
     </row>
     <row r="55">
@@ -3029,7 +3029,7 @@
         <v>100</v>
       </c>
       <c r="D55" t="n">
-        <v>81.49881233049391</v>
+        <v>81.49881233049388</v>
       </c>
     </row>
     <row r="56">
@@ -3043,7 +3043,7 @@
         <v>50</v>
       </c>
       <c r="D56" t="n">
-        <v>67.80349897262563</v>
+        <v>67.8034989726256</v>
       </c>
     </row>
     <row r="57">
@@ -3057,7 +3057,7 @@
         <v>50</v>
       </c>
       <c r="D57" t="n">
-        <v>67.58379361982966</v>
+        <v>67.58379361982968</v>
       </c>
     </row>
     <row r="58">
@@ -3071,7 +3071,7 @@
         <v>70</v>
       </c>
       <c r="D58" t="n">
-        <v>76.92923209496439</v>
+        <v>76.92923209496442</v>
       </c>
     </row>
     <row r="59">
@@ -3085,7 +3085,7 @@
         <v>70</v>
       </c>
       <c r="D59" t="n">
-        <v>77.00994056284</v>
+        <v>77.00994056283999</v>
       </c>
     </row>
     <row r="60">
@@ -3113,7 +3113,7 @@
         <v>30</v>
       </c>
       <c r="D61" t="n">
-        <v>39.0800126000206</v>
+        <v>39.08001260002061</v>
       </c>
     </row>
     <row r="62">
@@ -3127,7 +3127,7 @@
         <v>100</v>
       </c>
       <c r="D62" t="n">
-        <v>81.25056505843538</v>
+        <v>81.2505650584354</v>
       </c>
     </row>
     <row r="63">
@@ -3141,7 +3141,7 @@
         <v>100</v>
       </c>
       <c r="D63" t="n">
-        <v>81.248867183767</v>
+        <v>81.24886718376702</v>
       </c>
     </row>
     <row r="64">
@@ -3169,7 +3169,7 @@
         <v>105</v>
       </c>
       <c r="D65" t="n">
-        <v>79.93438968974412</v>
+        <v>79.93438968974411</v>
       </c>
     </row>
     <row r="66">
@@ -3197,7 +3197,7 @@
         <v>105</v>
       </c>
       <c r="D67" t="n">
-        <v>79.9897069087214</v>
+        <v>79.98970690872142</v>
       </c>
     </row>
     <row r="68">
@@ -3239,7 +3239,7 @@
         <v>30</v>
       </c>
       <c r="D70" t="n">
-        <v>35.76142271616149</v>
+        <v>35.7614227161615</v>
       </c>
     </row>
     <row r="71">
@@ -3267,7 +3267,7 @@
         <v>50</v>
       </c>
       <c r="D72" t="n">
-        <v>64.7233875536116</v>
+        <v>64.72338755361162</v>
       </c>
     </row>
     <row r="73">
@@ -3281,7 +3281,7 @@
         <v>30</v>
       </c>
       <c r="D73" t="n">
-        <v>33.9098750046655</v>
+        <v>33.90987500466552</v>
       </c>
     </row>
     <row r="74">
@@ -3323,7 +3323,7 @@
         <v>100</v>
       </c>
       <c r="D76" t="n">
-        <v>81.86870956795269</v>
+        <v>81.86870956795272</v>
       </c>
     </row>
     <row r="77">
@@ -3337,7 +3337,7 @@
         <v>70</v>
       </c>
       <c r="D77" t="n">
-        <v>75.99359464088221</v>
+        <v>75.99359464088222</v>
       </c>
     </row>
     <row r="78">
@@ -3365,7 +3365,7 @@
         <v>90</v>
       </c>
       <c r="D79" t="n">
-        <v>82.28788623195484</v>
+        <v>82.28788623195487</v>
       </c>
     </row>
     <row r="80">
@@ -3379,7 +3379,7 @@
         <v>90</v>
       </c>
       <c r="D80" t="n">
-        <v>82.38831628505089</v>
+        <v>82.38831628505088</v>
       </c>
     </row>
     <row r="81">
@@ -3407,7 +3407,7 @@
         <v>50</v>
       </c>
       <c r="D82" t="n">
-        <v>59.88660695983646</v>
+        <v>59.88660695983648</v>
       </c>
     </row>
     <row r="83">
@@ -3421,7 +3421,7 @@
         <v>105</v>
       </c>
       <c r="D83" t="n">
-        <v>81.8890700364085</v>
+        <v>81.88907003640847</v>
       </c>
     </row>
     <row r="84">
@@ -3463,7 +3463,7 @@
         <v>50</v>
       </c>
       <c r="D86" t="n">
-        <v>60.85291277555106</v>
+        <v>60.85291277555104</v>
       </c>
     </row>
     <row r="87">
@@ -3477,7 +3477,7 @@
         <v>100</v>
       </c>
       <c r="D87" t="n">
-        <v>83.61040603700501</v>
+        <v>83.61040603700502</v>
       </c>
     </row>
     <row r="88">
@@ -3561,7 +3561,7 @@
         <v>90</v>
       </c>
       <c r="D93" t="n">
-        <v>81.86293291591369</v>
+        <v>81.8629329159137</v>
       </c>
     </row>
     <row r="94">
@@ -3575,7 +3575,7 @@
         <v>90</v>
       </c>
       <c r="D94" t="n">
-        <v>81.80902300878567</v>
+        <v>81.80902300878566</v>
       </c>
     </row>
     <row r="95">
@@ -3589,7 +3589,7 @@
         <v>105</v>
       </c>
       <c r="D95" t="n">
-        <v>81.3180949326492</v>
+        <v>81.31809493264919</v>
       </c>
     </row>
     <row r="96">
@@ -3631,7 +3631,7 @@
         <v>50</v>
       </c>
       <c r="D98" t="n">
-        <v>55.80659438052925</v>
+        <v>55.80659438052928</v>
       </c>
     </row>
     <row r="99">
@@ -3645,7 +3645,7 @@
         <v>100</v>
       </c>
       <c r="D99" t="n">
-        <v>82.83234322452641</v>
+        <v>82.83234322452643</v>
       </c>
     </row>
     <row r="100">
@@ -3687,7 +3687,7 @@
         <v>50</v>
       </c>
       <c r="D102" t="n">
-        <v>55.32142546152529</v>
+        <v>55.32142546152531</v>
       </c>
     </row>
     <row r="103">
@@ -3701,7 +3701,7 @@
         <v>90</v>
       </c>
       <c r="D103" t="n">
-        <v>79.69349937266117</v>
+        <v>79.69349937266115</v>
       </c>
     </row>
     <row r="104">
@@ -3715,7 +3715,7 @@
         <v>90</v>
       </c>
       <c r="D104" t="n">
-        <v>79.6940637244538</v>
+        <v>79.69406372445383</v>
       </c>
     </row>
     <row r="105">
@@ -3757,7 +3757,7 @@
         <v>70</v>
       </c>
       <c r="D107" t="n">
-        <v>70.79440992491779</v>
+        <v>70.7944099249178</v>
       </c>
     </row>
     <row r="108">
@@ -3771,7 +3771,7 @@
         <v>70</v>
       </c>
       <c r="D108" t="n">
-        <v>70.79521673021222</v>
+        <v>70.79521673021223</v>
       </c>
     </row>
     <row r="109">
@@ -3785,7 +3785,7 @@
         <v>105</v>
       </c>
       <c r="D109" t="n">
-        <v>80.95729621998655</v>
+        <v>80.95729621998656</v>
       </c>
     </row>
     <row r="110">
@@ -3813,7 +3813,7 @@
         <v>90</v>
       </c>
       <c r="D111" t="n">
-        <v>79.9965332389479</v>
+        <v>79.99653323894789</v>
       </c>
     </row>
     <row r="112">
@@ -3827,7 +3827,7 @@
         <v>100</v>
       </c>
       <c r="D112" t="n">
-        <v>80.62652340784005</v>
+        <v>80.62652340784008</v>
       </c>
     </row>
     <row r="113">
@@ -3841,7 +3841,7 @@
         <v>100</v>
       </c>
       <c r="D113" t="n">
-        <v>80.61301038032992</v>
+        <v>80.61301038032991</v>
       </c>
     </row>
     <row r="114">
@@ -3855,7 +3855,7 @@
         <v>105</v>
       </c>
       <c r="D114" t="n">
-        <v>81.03770589154217</v>
+        <v>81.03770589154216</v>
       </c>
     </row>
     <row r="115">
@@ -3869,7 +3869,7 @@
         <v>105</v>
       </c>
       <c r="D115" t="n">
-        <v>81.02045258917383</v>
+        <v>81.02045258917381</v>
       </c>
     </row>
     <row r="116">
@@ -3883,7 +3883,7 @@
         <v>90</v>
       </c>
       <c r="D116" t="n">
-        <v>77.95923394216247</v>
+        <v>77.95923394216248</v>
       </c>
     </row>
     <row r="117">
@@ -3897,7 +3897,7 @@
         <v>90</v>
       </c>
       <c r="D117" t="n">
-        <v>77.94417059610936</v>
+        <v>77.94417059610933</v>
       </c>
     </row>
     <row r="118">
@@ -3953,7 +3953,7 @@
         <v>90</v>
       </c>
       <c r="D121" t="n">
-        <v>76.46057858357538</v>
+        <v>76.4605785835754</v>
       </c>
     </row>
     <row r="122">
@@ -3967,7 +3967,7 @@
         <v>100</v>
       </c>
       <c r="D122" t="n">
-        <v>76.51038367531424</v>
+        <v>76.51038367531426</v>
       </c>
     </row>
     <row r="123">
@@ -3981,7 +3981,7 @@
         <v>100</v>
       </c>
       <c r="D123" t="n">
-        <v>76.50760920287867</v>
+        <v>76.50760920287868</v>
       </c>
     </row>
     <row r="124">
